--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77215600-9739-A24B-B9C9-40F3D8797BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD5710-4832-854A-AA56-853E5115D1E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15720" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15720" activeTab="3" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
-    <sheet name="Field Test 2019-12-04 = FB" sheetId="1" r:id="rId1"/>
+    <sheet name="Field Test 2019-12-05 = FB" sheetId="1" r:id="rId1"/>
+    <sheet name="Field Test 2019-12-05 = GOOGL" sheetId="2" r:id="rId2"/>
+    <sheet name="Field Test 2019-12-05 = BA" sheetId="3" r:id="rId3"/>
+    <sheet name="Field Test 2019-12-05 = S63.SI" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -54,16 +57,20 @@
     <t>New Cash Balance</t>
   </si>
   <si>
-    <t>SELL</t>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>Current Stock Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -122,15 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,13 +146,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,11 +164,41 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -174,11 +211,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -194,11 +251,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -214,11 +291,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -234,11 +331,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -254,61 +371,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -622,11 +699,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A83F1A8-E3BD-7F4C-9CD8-970E27347A99}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -637,10 +712,11 @@
     <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -662,10 +738,13 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -677,187 +756,603 @@
         <v>7</v>
       </c>
       <c r="E2" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="7">
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
+        <f>C2-(F2*H2)</f>
+        <v>13.15280778003282</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5.9235961099835901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43805</v>
+      </c>
+      <c r="B3" s="7">
+        <f>F2</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C11" si="0">G2</f>
+        <v>13.15280778003282</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="e">
+        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="8" t="e">
+        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>43806</v>
+      </c>
+      <c r="B4" s="7" t="e">
+        <f t="shared" ref="B4:B11" si="3">F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>43807</v>
+      </c>
+      <c r="B5" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>43808</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>43809</v>
+      </c>
+      <c r="B7" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>43810</v>
+      </c>
+      <c r="B8" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>43811</v>
+      </c>
+      <c r="B9" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43812</v>
+      </c>
+      <c r="B10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>43813</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D1048576 D1">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E1048576 E1">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D2)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF29D92-74DB-3B4B-BA33-E2909A7706BD}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43804</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
+        <v>0</v>
+      </c>
       <c r="G2" s="8">
+        <f>C2-(F2*H2)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="12">
+        <v>7.87970763612699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="B3" s="7">
         <f>F2</f>
         <v>0</v>
       </c>
       <c r="C3" s="8">
-        <f>G2</f>
+        <f t="shared" ref="C3:C11" si="0">G2</f>
         <v>25</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="7" t="e">
+        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="8" t="e">
+        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>43805</v>
-      </c>
-      <c r="B4" s="7">
-        <f>F3</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" ref="C4:C12" si="0">G3</f>
-        <v>0</v>
+        <v>43806</v>
+      </c>
+      <c r="B4" s="7" t="e">
+        <f t="shared" ref="B4:B11" si="3">F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>43806</v>
-      </c>
-      <c r="B5" s="7">
-        <f t="shared" ref="B4:B12" si="1">F4</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43807</v>
+      </c>
+      <c r="B5" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>43807</v>
-      </c>
-      <c r="B6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43808</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>43808</v>
-      </c>
-      <c r="B7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43809</v>
+      </c>
+      <c r="B7" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>43809</v>
-      </c>
-      <c r="B8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43810</v>
+      </c>
+      <c r="B8" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>43810</v>
-      </c>
-      <c r="B9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43811</v>
+      </c>
+      <c r="B9" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>43811</v>
-      </c>
-      <c r="B10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43812</v>
+      </c>
+      <c r="B10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>43812</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43813</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>43813</v>
-      </c>
-      <c r="B12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="&quot;SELL&quot;"/>
@@ -868,15 +1363,6 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="HOLD">
-      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="1">
@@ -890,4 +1376,654 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D4970-3200-FB45-8C9B-EC476A15E0FB}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43804</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="7">
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
+        <f>C2-(F2*H2)</f>
+        <v>10.403598148594961</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1.2163668209504199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43805</v>
+      </c>
+      <c r="B3" s="7">
+        <f>F2</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C11" si="0">G2</f>
+        <v>10.403598148594961</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="e">
+        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="8" t="e">
+        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>43806</v>
+      </c>
+      <c r="B4" s="7" t="e">
+        <f t="shared" ref="B4:B11" si="3">F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>43807</v>
+      </c>
+      <c r="B5" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>43808</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>43809</v>
+      </c>
+      <c r="B7" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>43810</v>
+      </c>
+      <c r="B8" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>43811</v>
+      </c>
+      <c r="B9" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43812</v>
+      </c>
+      <c r="B10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>43813</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43804</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
+        <f>C2-(F2*H2)</f>
+        <v>20.83974872339002</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2.08012563830499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43805</v>
+      </c>
+      <c r="B3" s="7">
+        <f>F2</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C11" si="0">G2</f>
+        <v>20.83974872339002</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="e">
+        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="8" t="e">
+        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>43806</v>
+      </c>
+      <c r="B4" s="7" t="e">
+        <f t="shared" ref="B4:B11" si="3">F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>43807</v>
+      </c>
+      <c r="B5" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>43808</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>43809</v>
+      </c>
+      <c r="B7" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>43810</v>
+      </c>
+      <c r="B8" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>43811</v>
+      </c>
+      <c r="B9" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43812</v>
+      </c>
+      <c r="B10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>43813</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD5710-4832-854A-AA56-853E5115D1E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FB0F1-32D1-5848-90E9-0F5C8720DE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15720" activeTab="3" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-05 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -70,7 +70,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -164,81 +164,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -759,11 +692,11 @@
         <v>0.6</v>
       </c>
       <c r="F2" s="7">
-        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2) + B2</f>
         <v>2</v>
       </c>
       <c r="G2" s="8">
-        <f>C2-(F2*H2)</f>
+        <f>C2-((F2 - B2)*H2)</f>
         <v>13.15280778003282</v>
       </c>
       <c r="H2" s="12">
@@ -782,38 +715,44 @@
         <f t="shared" ref="C3:C11" si="0">G2</f>
         <v>13.15280778003282</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7" t="e">
-        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="8" t="e">
-        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="7">
+        <f>_xlfn.FLOOR.MATH((C3*E3)/H3) + B3</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="8">
+        <f>C3-((F3 - B3)*H3)</f>
+        <v>6.8700191263264294</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6.2827886537063904</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43806</v>
       </c>
-      <c r="B4" s="7" t="e">
-        <f t="shared" ref="B4:B11" si="3">F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B11" si="1">F3</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>6.8700191263264294</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
       <c r="F4" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="12"/>
@@ -823,7 +762,7 @@
         <v>43807</v>
       </c>
       <c r="B5" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C5" s="8" t="e">
@@ -833,11 +772,11 @@
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="12"/>
@@ -847,7 +786,7 @@
         <v>43808</v>
       </c>
       <c r="B6" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C6" s="8" t="e">
@@ -857,11 +796,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="12"/>
@@ -871,7 +810,7 @@
         <v>43809</v>
       </c>
       <c r="B7" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C7" s="8" t="e">
@@ -881,11 +820,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="12"/>
@@ -895,7 +834,7 @@
         <v>43810</v>
       </c>
       <c r="B8" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="8" t="e">
@@ -905,11 +844,11 @@
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="12"/>
@@ -919,7 +858,7 @@
         <v>43811</v>
       </c>
       <c r="B9" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C9" s="8" t="e">
@@ -929,11 +868,11 @@
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="12"/>
@@ -943,7 +882,7 @@
         <v>43812</v>
       </c>
       <c r="B10" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C10" s="8" t="e">
@@ -953,11 +892,11 @@
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="12"/>
@@ -967,7 +906,7 @@
         <v>43813</v>
       </c>
       <c r="B11" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C11" s="8" t="e">
@@ -977,24 +916,24 @@
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D1048576 D1">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -1019,13 +958,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -1115,11 +1054,11 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="7">
-        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2) + B2</f>
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <f>C2-(F2*H2)</f>
+        <f>C2-((F2 - B2)*H2)</f>
         <v>25</v>
       </c>
       <c r="H2" s="12">
@@ -1138,38 +1077,44 @@
         <f t="shared" ref="C3:C11" si="0">G2</f>
         <v>25</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7" t="e">
-        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="8" t="e">
-        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>_xlfn.FLOOR.MATH((C3*E3)/H3) + B3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>C3-((F3 - B3)*H3)</f>
+        <v>25</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8.8985273000070801</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43806</v>
       </c>
-      <c r="B4" s="7" t="e">
-        <f t="shared" ref="B4:B11" si="3">F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B11" si="1">F3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
       <c r="F4" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="12"/>
@@ -1179,7 +1124,7 @@
         <v>43807</v>
       </c>
       <c r="B5" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C5" s="8" t="e">
@@ -1189,11 +1134,11 @@
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="12"/>
@@ -1203,7 +1148,7 @@
         <v>43808</v>
       </c>
       <c r="B6" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C6" s="8" t="e">
@@ -1213,11 +1158,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="12"/>
@@ -1227,7 +1172,7 @@
         <v>43809</v>
       </c>
       <c r="B7" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C7" s="8" t="e">
@@ -1237,11 +1182,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="12"/>
@@ -1251,7 +1196,7 @@
         <v>43810</v>
       </c>
       <c r="B8" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="8" t="e">
@@ -1261,11 +1206,11 @@
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="12"/>
@@ -1275,7 +1220,7 @@
         <v>43811</v>
       </c>
       <c r="B9" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C9" s="8" t="e">
@@ -1285,11 +1230,11 @@
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="12"/>
@@ -1299,7 +1244,7 @@
         <v>43812</v>
       </c>
       <c r="B10" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C10" s="8" t="e">
@@ -1309,11 +1254,11 @@
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="12"/>
@@ -1323,7 +1268,7 @@
         <v>43813</v>
       </c>
       <c r="B11" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C11" s="8" t="e">
@@ -1333,24 +1278,24 @@
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1380,6 +1325,337 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D4970-3200-FB45-8C9B-EC476A15E0FB}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43804</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="7">
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2) + B2</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
+        <f>C2-((F2 - B2)*H2)</f>
+        <v>10.403598148594961</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1.2163668209504199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>43805</v>
+      </c>
+      <c r="B3" s="7">
+        <f>F2</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C11" si="0">G2</f>
+        <v>10.403598148594961</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>_xlfn.FLOOR.MATH((C3*E3)/H3) + B3</f>
+        <v>13</v>
+      </c>
+      <c r="G3" s="8">
+        <f>C3-((F3 - B3)*H3)</f>
+        <v>9.2628940696454407</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1.14070407894952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>43806</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B11" si="1">F3</f>
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>9.2628940696454407</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="e">
+        <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="8" t="e">
+        <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>43807</v>
+      </c>
+      <c r="B5" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>43808</v>
+      </c>
+      <c r="B6" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>43809</v>
+      </c>
+      <c r="B7" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>43810</v>
+      </c>
+      <c r="B8" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>43811</v>
+      </c>
+      <c r="B9" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43812</v>
+      </c>
+      <c r="B10" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>43813</v>
+      </c>
+      <c r="B11" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
@@ -1437,18 +1713,18 @@
         <v>7</v>
       </c>
       <c r="E2" s="10">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="7">
-        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
-        <v>12</v>
+        <f>_xlfn.FLOOR.MATH((C2*E2)/H2) + B2</f>
+        <v>2</v>
       </c>
       <c r="G2" s="8">
-        <f>C2-(F2*H2)</f>
-        <v>10.403598148594961</v>
+        <f>C2-((F2 - B2)*H2)</f>
+        <v>20.83974872339002</v>
       </c>
       <c r="H2" s="12">
-        <v>1.2163668209504199</v>
+        <v>2.08012563830499</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1457,44 +1733,50 @@
       </c>
       <c r="B3" s="7">
         <f>F2</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C11" si="0">G2</f>
-        <v>10.403598148594961</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7" t="e">
-        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="8" t="e">
-        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="12"/>
+        <v>20.83974872339002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="7">
+        <f>_xlfn.FLOOR.MATH((C3*E3)/H3) + B3</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <f>C3-((F3 - B3)*H3)</f>
+        <v>9.3439186749730005</v>
+      </c>
+      <c r="H3" s="12">
+        <v>3.8319433494723398</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43806</v>
       </c>
-      <c r="B4" s="7" t="e">
-        <f t="shared" ref="B4:B11" si="3">F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B11" si="1">F3</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3439186749730005</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="10"/>
       <c r="F4" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="12"/>
@@ -1504,7 +1786,7 @@
         <v>43807</v>
       </c>
       <c r="B5" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C5" s="8" t="e">
@@ -1514,11 +1796,11 @@
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="12"/>
@@ -1528,7 +1810,7 @@
         <v>43808</v>
       </c>
       <c r="B6" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C6" s="8" t="e">
@@ -1538,11 +1820,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="12"/>
@@ -1552,7 +1834,7 @@
         <v>43809</v>
       </c>
       <c r="B7" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C7" s="8" t="e">
@@ -1562,11 +1844,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="12"/>
@@ -1576,7 +1858,7 @@
         <v>43810</v>
       </c>
       <c r="B8" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="8" t="e">
@@ -1586,11 +1868,11 @@
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="12"/>
@@ -1600,7 +1882,7 @@
         <v>43811</v>
       </c>
       <c r="B9" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C9" s="8" t="e">
@@ -1610,11 +1892,11 @@
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="12"/>
@@ -1624,7 +1906,7 @@
         <v>43812</v>
       </c>
       <c r="B10" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C10" s="8" t="e">
@@ -1634,11 +1916,11 @@
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="12"/>
@@ -1648,7 +1930,7 @@
         <v>43813</v>
       </c>
       <c r="B11" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C11" s="8" t="e">
@@ -1658,24 +1940,24 @@
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1701,329 +1983,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>43804</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="7">
-        <f>_xlfn.FLOOR.MATH((C2*E2)/H2)</f>
-        <v>2</v>
-      </c>
-      <c r="G2" s="8">
-        <f>C2-(F2*H2)</f>
-        <v>20.83974872339002</v>
-      </c>
-      <c r="H2" s="12">
-        <v>2.08012563830499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>43805</v>
-      </c>
-      <c r="B3" s="7">
-        <f>F2</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <f t="shared" ref="C3:C11" si="0">G2</f>
-        <v>20.83974872339002</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7" t="e">
-        <f t="shared" ref="F3:F11" si="1">_xlfn.FLOOR.MATH((C3*E3)/H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="8" t="e">
-        <f t="shared" ref="G3:G11" si="2">C3-(F3*H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>43806</v>
-      </c>
-      <c r="B4" s="7" t="e">
-        <f t="shared" ref="B4:B11" si="3">F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>43807</v>
-      </c>
-      <c r="B5" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>43808</v>
-      </c>
-      <c r="B6" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>43809</v>
-      </c>
-      <c r="B7" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C7" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>43810</v>
-      </c>
-      <c r="B8" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>43811</v>
-      </c>
-      <c r="B9" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>43812</v>
-      </c>
-      <c r="B10" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>43813</v>
-      </c>
-      <c r="B11" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="HOLD">
-      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="&quot;SELL&quot;"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FB0F1-32D1-5848-90E9-0F5C8720DE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10ED5D7-1652-C04D-A838-8F2D10ACF4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-05 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -171,7 +171,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -634,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A83F1A8-E3BD-7F4C-9CD8-970E27347A99}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -745,29 +775,35 @@
         <f t="shared" si="0"/>
         <v>6.8700191263264294</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="e">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="8" t="e">
-        <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <f>C4-((F4 - B4)*H4)</f>
+        <v>6.8700191263264294</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7.6976744186046497</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43807</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>6.8700191263264294</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
@@ -776,7 +812,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G4:G11" si="3">C5-((F5 - B5)*H5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="12"/>
@@ -926,15 +962,46 @@
       <c r="H11" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D1048576 D1">
+  <conditionalFormatting sqref="D3 D1 D5:D1048576">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3 E1 E5:E1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
     <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="HOLD">
-      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("HOLD",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BUY",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SELL",D2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
       <colorScale>
@@ -947,7 +1014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E1048576 E1">
+  <conditionalFormatting sqref="E2">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -957,17 +1024,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="HOLD">
-      <formula>NOT(ISERROR(SEARCH("HOLD",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",D2)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D4)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="&quot;SELL&quot;"/>
         <cfvo type="percentile" val="50"/>
@@ -978,8 +1045,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1107,38 +1174,44 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="e">
-        <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="8" t="e">
-        <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="7">
+        <f>_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G11" si="2">C4-((F4 - B4)*H4)</f>
+        <v>15.95616073136692</v>
+      </c>
+      <c r="H4" s="12">
+        <v>9.0438392686330804</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43807</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>15.95616073136692</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F4:F11" si="3">_xlfn.FLOOR.MATH((C5*E5)/H5) + B5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="12"/>
@@ -1158,11 +1231,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="12"/>
@@ -1182,11 +1255,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="12"/>
@@ -1206,11 +1279,11 @@
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="12"/>
@@ -1230,11 +1303,11 @@
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="12"/>
@@ -1254,11 +1327,11 @@
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="12"/>
@@ -1278,24 +1351,24 @@
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1327,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D4970-3200-FB45-8C9B-EC476A15E0FB}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1438,29 +1511,35 @@
         <f t="shared" si="0"/>
         <v>9.2628940696454407</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="e">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="8" t="e">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>9.2628940696454407</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3.5491494537141701</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43807</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>9.2628940696454407</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
@@ -1620,13 +1699,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1769,29 +1848,35 @@
         <f t="shared" si="0"/>
         <v>9.3439186749730005</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="e">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F11" si="2">_xlfn.FLOOR.MATH((C4*E4)/H4) + B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="8" t="e">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G11" si="3">C4-((F4 - B4)*H4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>9.3439186749730005</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4.8813769716439097</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43807</v>
       </c>
-      <c r="B5" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3439186749730005</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
@@ -1951,13 +2036,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10ED5D7-1652-C04D-A838-8F2D10ACF4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6F0DC-4A98-8D4A-BA29-9B0478594E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-05 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A83F1A8-E3BD-7F4C-9CD8-970E27347A99}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -805,29 +805,35 @@
         <f t="shared" si="0"/>
         <v>6.8700191263264294</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="8" t="e">
-        <f t="shared" ref="G4:G11" si="3">C5-((F5 - B5)*H5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G11" si="3">C5-((F5 - B5)*H5)</f>
+        <v>6.8700191263264294</v>
+      </c>
+      <c r="H5" s="12">
+        <v>7.3969783432172003</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43808</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>6.8700191263264294</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
@@ -962,7 +968,7 @@
       <c r="H11" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3 D1 D5:D1048576">
+  <conditionalFormatting sqref="D1 D3 D5:D1048576">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
@@ -983,7 +989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3 E1 E5:E1048576">
+  <conditionalFormatting sqref="E1 E3 E5:E1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1025,13 +1031,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D4)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1204,29 +1210,35 @@
         <f t="shared" si="0"/>
         <v>15.95616073136692</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7" t="e">
-        <f t="shared" ref="F4:F11" si="3">_xlfn.FLOOR.MATH((C5*E5)/H5) + B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F11" si="3">_xlfn.FLOOR.MATH((C5*E5)/H5) + B5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="2"/>
+        <v>15.95616073136692</v>
+      </c>
+      <c r="H5" s="12">
+        <v>9.3358673332939599</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43808</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>15.95616073136692</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
@@ -1362,13 +1374,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1541,29 +1553,35 @@
         <f t="shared" si="0"/>
         <v>9.2628940696454407</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="3"/>
+        <v>5.7056449384349701</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3.5572491312104701</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43808</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>5.7056449384349701</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
@@ -1699,13 +1717,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1737,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1878,29 +1896,35 @@
         <f t="shared" si="0"/>
         <v>9.3439186749730005</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="3"/>
+        <v>4.4512783050369205</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4.8926403699360801</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43808</v>
       </c>
-      <c r="B6" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4512783050369205</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
@@ -2036,13 +2060,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD5843-BCD3-D146-900A-1FDF087BD69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF617A25-AD9F-7E4C-9E5F-EB463F9819A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15640" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-10 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -71,14 +71,18 @@
   <si>
     <t>% Increase</t>
   </si>
+  <si>
+    <t>SELL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -192,11 +196,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,17 +812,23 @@
         <f>G2</f>
         <v>302.01</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
       <c r="F3" s="7">
         <f>IF(D3="BUY", _xlfn.FLOOR.MATH(C3*E3/H3) + B3, IF(D3="SELL", B3 - _xlfn.FLOOR.MATH(B3*E3), B3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G6" si="0">(B3-F3) * H3 + C3</f>
-        <v>302.01</v>
-      </c>
-      <c r="H3" s="9"/>
+        <f>(B3-F3) * H3 + C3</f>
+        <v>504.33</v>
+      </c>
+      <c r="H3" s="9">
+        <v>202.32</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -826,21 +836,21 @@
       </c>
       <c r="B4" s="7">
         <f>F3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ref="C4:C6" si="1">G3</f>
-        <v>302.01</v>
+        <f t="shared" ref="C4:C6" si="0">G3</f>
+        <v>504.33</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9"/>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F6" si="2">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
-        <v>1</v>
+        <f t="shared" ref="F4:F6" si="1">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
-        <v>302.01</v>
+        <f t="shared" ref="G3:G6" si="2">(B4-F4) * H4 + C4</f>
+        <v>504.33</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -850,21 +860,21 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B6" si="3">F4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="1"/>
-        <v>302.01</v>
+        <f t="shared" si="0"/>
+        <v>504.33</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>302.01</v>
+        <v>504.33</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -874,21 +884,21 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" si="1"/>
-        <v>302.01</v>
+        <f t="shared" si="0"/>
+        <v>504.33</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>302.01</v>
+        <v>504.33</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -904,16 +914,16 @@
       </c>
       <c r="F8" s="12">
         <f>F6*H6+G6</f>
-        <v>302.01</v>
+        <v>504.33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.4</v>
+        <v>1.9469553988277766E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1040,17 +1050,23 @@
         <f>G2</f>
         <v>2014.4849999999999</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
       <c r="F3" s="7">
         <f>IF(D3="BUY", _xlfn.FLOOR.MATH(C3*E3/H3) + B3, IF(D3="SELL", B3 - _xlfn.FLOOR.MATH(B3*E3), B3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G6" si="0">(B3-F3) * H3 + C3</f>
-        <v>2014.4849999999999</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>3151.6750000000002</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1137.19</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1058,21 +1074,21 @@
       </c>
       <c r="B4" s="7">
         <f>F3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C6" si="1">G3</f>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9"/>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F6" si="2">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -1082,21 +1098,21 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B6" si="3">F4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1106,21 +1122,21 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1134,18 +1150,18 @@
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>F6*H6+G6</f>
-        <v>2014.4849999999999</v>
+        <v>3151.6750000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.4</v>
+        <v>-6.1296063261826142E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1321,17 +1337,23 @@
         <f>G2</f>
         <v>526.81500000000005</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F3" s="7">
         <f>IF(D3="BUY", _xlfn.FLOOR.MATH(C3*E3/H3) + B3, IF(D3="SELL", B3 - _xlfn.FLOOR.MATH(B3*E3), B3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G6" si="0">(B3-F3) * H3 + C3</f>
-        <v>526.81500000000005</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>165.29500000000007</v>
+      </c>
+      <c r="H3" s="9">
+        <v>361.52</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1339,21 +1361,21 @@
       </c>
       <c r="B4" s="7">
         <f>F3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C6" si="1">G3</f>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9"/>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F6" si="2">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -1363,21 +1385,21 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B6" si="3">F4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1387,21 +1409,21 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1415,18 +1437,18 @@
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>F6*H6+G6</f>
-        <v>526.81500000000005</v>
+        <v>165.29500000000007</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.81174226246405279</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1596,8 +1618,12 @@
         <f>G2</f>
         <v>6.0750000000000002</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F3" s="7">
         <f>IF(D3="BUY", _xlfn.FLOOR.MATH(C3*E3/H3) + B3, IF(D3="SELL", B3 - _xlfn.FLOOR.MATH(B3*E3), B3))</f>
         <v>1</v>
@@ -1606,7 +1632,9 @@
         <f t="shared" ref="G3:G6" si="0">(B3-F3) * H3 + C3</f>
         <v>6.0750000000000002</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9">
+        <v>4.2699999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1690,7 +1718,7 @@
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>F6*H6+G6</f>
         <v>6.0750000000000002</v>
       </c>
@@ -1699,7 +1727,7 @@
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
         <v>-0.39999999999999997</v>
       </c>

--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF617A25-AD9F-7E4C-9E5F-EB463F9819A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9ED36-58E8-9044-B6B4-379CBCE2C8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-10 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -82,7 +82,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -199,7 +199,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -207,7 +207,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -730,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A83F1A8-E3BD-7F4C-9CD8-970E27347A99}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -842,17 +872,23 @@
         <f t="shared" ref="C4:C6" si="0">G3</f>
         <v>504.33</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F6" si="1">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G3:G6" si="2">(B4-F4) * H4 + C4</f>
-        <v>504.33</v>
-      </c>
-      <c r="H4" s="9"/>
+        <f t="shared" ref="G4:G6" si="2">(B4-F4) * H4 + C4</f>
+        <v>301.99</v>
+      </c>
+      <c r="H4" s="9">
+        <v>202.34</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -860,21 +896,21 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:B6" si="3">F4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>504.33</v>
+        <v>301.99</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="2"/>
-        <v>504.33</v>
+        <v>301.99</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -884,21 +920,21 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>504.33</v>
+        <v>301.99</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="2"/>
-        <v>504.33</v>
+        <v>301.99</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -914,7 +950,7 @@
       </c>
       <c r="F8" s="12">
         <f>F6*H6+G6</f>
-        <v>504.33</v>
+        <v>301.99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -923,18 +959,18 @@
       </c>
       <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>1.9469553988277766E-3</v>
+        <v>-0.40003973378364954</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D7 D9:D1048576 E8">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="21">
@@ -1080,8 +1116,12 @@
         <f t="shared" ref="C4:C6" si="1">G3</f>
         <v>3151.6750000000002</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F6" si="2">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
         <v>0</v>
@@ -1090,7 +1130,9 @@
         <f t="shared" si="0"/>
         <v>3151.6750000000002</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>1146.08</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1184,13 +1226,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D1048576">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="19" priority="38" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -1215,13 +1257,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D7 D9 E8">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1367,8 +1409,12 @@
         <f t="shared" ref="C4:C6" si="1">G3</f>
         <v>165.29500000000007</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F6" si="2">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
         <v>2</v>
@@ -1377,7 +1423,9 @@
         <f t="shared" si="0"/>
         <v>165.29500000000007</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>348.02</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1465,13 +1513,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="32" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="14" priority="32" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="34" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="12" priority="34" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D12)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -1496,13 +1544,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D7 D9 E8">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1536,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1648,8 +1696,12 @@
         <f t="shared" ref="C4:C6" si="1">G3</f>
         <v>6.0750000000000002</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F6" si="2">IF(D4="BUY", _xlfn.FLOOR.MATH(C4*E4/H4) + B4, IF(D4="SELL", B4 - _xlfn.FLOOR.MATH(B4*E4), B4))</f>
         <v>1</v>
@@ -1658,7 +1710,9 @@
         <f t="shared" si="0"/>
         <v>6.0750000000000002</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>4.29</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1746,16 +1800,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="27" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="28" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="29" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D12)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="formula" val="&quot;SELL&quot;"/>
         <cfvo type="percentile" val="50"/>
@@ -1767,7 +1821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E1048576">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1776,15 +1830,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D7 D9 E8">
+  <conditionalFormatting sqref="D1:D3 D9 E8 D5:D7">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E3 E5:E9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0.1"/>
+        <cfvo type="num" val="0.55000000000000004"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
-      <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("HOLD",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BUY",D4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SELL",D4)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -1797,7 +1884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E9">
+  <conditionalFormatting sqref="E4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.1"/>

--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9ED36-58E8-9044-B6B4-379CBCE2C8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C086AD4A-B8CB-4A4B-BD89-9D7F42FA9031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-10 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -207,7 +207,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -760,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A83F1A8-E3BD-7F4C-9CD8-970E27347A99}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -902,17 +932,23 @@
         <f t="shared" si="0"/>
         <v>301.99</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="2"/>
-        <v>301.99</v>
-      </c>
-      <c r="H5" s="9"/>
+        <v>97.260000000000019</v>
+      </c>
+      <c r="H5" s="9">
+        <v>204.73</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -920,25 +956,25 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>301.99</v>
+        <v>97.260000000000019</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="2"/>
-        <v>301.99</v>
+        <v>97.260000000000019</v>
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -950,7 +986,7 @@
       </c>
       <c r="F8" s="12">
         <f>F6*H6+G6</f>
-        <v>301.99</v>
+        <v>97.260000000000019</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -959,18 +995,18 @@
       </c>
       <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.40003973378364954</v>
+        <v>-0.80677461011224794</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D7 D9:D1048576 E8">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="21">
@@ -1004,7 +1040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF29D92-74DB-3B4B-BA33-E2909A7706BD}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1146,8 +1184,12 @@
         <f t="shared" si="1"/>
         <v>3151.6750000000002</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1156,7 +1198,9 @@
         <f t="shared" si="0"/>
         <v>3151.6750000000002</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <v>1137.67</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1226,16 +1270,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D1048576">
-    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="23" priority="42" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="38" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="21" priority="44" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D13)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="formula" val="&quot;SELL&quot;"/>
         <cfvo type="percentile" val="50"/>
@@ -1247,7 +1291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E1048576">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1256,15 +1300,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D7 D9 E8">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="HOLD">
+  <conditionalFormatting sqref="D1:D4 D9 E8 D6:D7">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="&quot;SELL&quot;"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E4 E6:E9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0.1"/>
+        <cfvo type="num" val="0.55000000000000004"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
+      <formula>NOT(ISERROR(SEARCH("HOLD",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",D5)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -1277,7 +1354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E9">
+  <conditionalFormatting sqref="E5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.1"/>
@@ -1439,17 +1516,23 @@
         <f t="shared" si="1"/>
         <v>165.29500000000007</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>165.29500000000007</v>
-      </c>
-      <c r="H5" s="9"/>
+        <v>855.17500000000007</v>
+      </c>
+      <c r="H5" s="9">
+        <v>344.94</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1457,21 +1540,21 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>165.29500000000007</v>
+        <v>855.17500000000007</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>165.29500000000007</v>
+        <v>855.17500000000007</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1487,7 +1570,7 @@
       </c>
       <c r="F8" s="14">
         <f>F6*H6+G6</f>
-        <v>165.29500000000007</v>
+        <v>855.17500000000007</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1496,7 +1579,7 @@
       </c>
       <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.81174226246405279</v>
+        <v>-2.6024315936334284E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1513,13 +1596,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D1048576">
-    <cfRule type="containsText" dxfId="14" priority="32" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="34" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="15" priority="34" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D12)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -1544,13 +1627,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D7 D9 E8">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1584,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1726,8 +1809,12 @@
         <f t="shared" si="1"/>
         <v>6.0750000000000002</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1736,7 +1823,9 @@
         <f t="shared" si="0"/>
         <v>6.0750000000000002</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <v>4.29</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1800,13 +1889,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="11" priority="32" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="9" priority="34" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D12)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -1831,13 +1920,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3 D9 E8 D5:D7">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -1864,13 +1953,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D4)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
+++ b/Extra Resources/Field Tests/Sredictio Field Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Field Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C086AD4A-B8CB-4A4B-BD89-9D7F42FA9031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4027EB-D67A-0646-9E48-210A7EC1CA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="3" xr2:uid="{8C85ED89-2AFE-C046-801A-474C1BDD5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Test 2019-12-10 = FB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A83F1A8-E3BD-7F4C-9CD8-970E27347A99}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -962,8 +962,12 @@
         <f t="shared" si="0"/>
         <v>97.260000000000019</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -972,7 +976,9 @@
         <f t="shared" si="2"/>
         <v>97.260000000000019</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>194.19</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
@@ -986,7 +992,7 @@
       </c>
       <c r="F8" s="12">
         <f>F6*H6+G6</f>
-        <v>97.260000000000019</v>
+        <v>485.64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,7 +1001,7 @@
       </c>
       <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.80677461011224794</v>
+        <v>-3.5184265421674847E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1040,9 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF29D92-74DB-3B4B-BA33-E2909A7706BD}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1214,17 +1218,23 @@
         <f t="shared" si="1"/>
         <v>3151.6750000000002</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>3151.6750000000002</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>1802.3950000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1349.28</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
@@ -1334,13 +1344,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D5)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1546,17 +1556,23 @@
         <f t="shared" si="1"/>
         <v>855.17500000000007</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>855.17500000000007</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>513.74500000000012</v>
+      </c>
+      <c r="H6" s="9">
+        <v>341.43</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
@@ -1570,7 +1586,7 @@
       </c>
       <c r="F8" s="14">
         <f>F6*H6+G6</f>
-        <v>855.17500000000007</v>
+        <v>855.17500000000018</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1579,7 +1595,7 @@
       </c>
       <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-2.6024315936334284E-2</v>
+        <v>-2.6024315936334155E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1596,13 +1612,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D1048576">
-    <cfRule type="containsText" dxfId="17" priority="32" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="14" priority="32" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="34" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="12" priority="34" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D12)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -1627,13 +1643,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D7 D9 E8">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -1667,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0233C8A-BB30-1D40-AFD6-640739F95D89}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1839,17 +1855,23 @@
         <f t="shared" si="1"/>
         <v>6.0750000000000002</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
@@ -1863,7 +1885,7 @@
       </c>
       <c r="F8" s="14">
         <f>F6*H6+G6</f>
-        <v>6.0750000000000002</v>
+        <v>10.074999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,7 +1894,7 @@
       </c>
       <c r="F9" s="15">
         <f>(F8-C2)/C2</f>
-        <v>-0.39999999999999997</v>
+        <v>-4.9382716049383418E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1889,13 +1911,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="32" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="34" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D12)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -1920,13 +1942,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3 D9 E8 D5:D7">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -1953,13 +1975,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="HOLD">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HOLD">
       <formula>NOT(ISERROR(SEARCH("HOLD",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",D4)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
